--- a/AIPEPortfolioLast.xlsx
+++ b/AIPEPortfolioLast.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -529,11 +529,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>XD同仁堂</t>
+          <t>同仁堂</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -800,11 +825,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42.8</v>
+        <v>42.95</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -829,7 +854,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -850,11 +875,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -879,7 +904,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -904,7 +929,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -925,11 +950,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.960000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -954,7 +979,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -969,7 +994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,14 +1061,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.04</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1101,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1102,14 +1127,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42.8</v>
+        <v>42.95</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1135,14 +1160,14 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="F5" t="n">
         <v>0.98</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1200,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1201,14 +1226,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="F7" t="n">
         <v>1.02</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1266,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1299,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1316,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XD同仁堂</t>
+          <t>同仁堂</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1307,7 +1332,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1365,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1369,11 +1394,11 @@
         <v>4.84</v>
       </c>
       <c r="F12" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1399,14 +1424,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.960000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="F13" t="n">
         <v>5.25</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1432,14 +1457,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1465,14 +1490,14 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F15" t="n">
         <v>9.91</v>
       </c>
-      <c r="F15" t="n">
-        <v>9.9</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1530,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1542,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>688290</t>
+          <t>HK01896</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景业智能</t>
+          <t>猫眼娱乐</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1531,14 +1556,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.46</v>
+        <v>0.97</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
@@ -1550,28 +1575,61 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HK01896</t>
+          <t>601688</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>猫眼娱乐</t>
+          <t>华泰证券</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大成</t>
+          <t>大智</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.97</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>202507011425</t>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>202507021326</t>
         </is>
       </c>
     </row>
